--- a/Excels/Localization/LanguageBuiltin.xlsx
+++ b/Excels/Localization/LanguageBuiltin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\ZH_GameSpace\Self\DavlmiLauncher\Excels\Dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\ZH_GameSpace\Self\GameClient\Excels\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC176AE4-3EC8-4C9E-A1B5-33E4BF03A6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21268E-70C4-4167-9F16-0E7230517D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="5445" windowWidth="26130" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="5430" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -31,228 +31,34 @@
     <t>#策划备注</t>
   </si>
   <si>
-    <t>ChineseTraditional</t>
+    <t>Language.English</t>
+  </si>
+  <si>
+    <t>Language.ChineseSimplified</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>Language.ChineseTraditional</t>
+  </si>
+  <si>
+    <t>Language.Korean</t>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Language.English</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>영어</t>
-  </si>
-  <si>
-    <t>Language.ChineseSimplified</t>
-  </si>
-  <si>
-    <t>简体中文</t>
-  </si>
-  <si>
-    <t>簡體中文</t>
-  </si>
-  <si>
-    <t>Chinese Simplified</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중국어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>간체</t>
-    </r>
-  </si>
-  <si>
-    <t>Language.ChineseTraditional</t>
-  </si>
-  <si>
-    <t>繁体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>繁體中文</t>
-  </si>
-  <si>
-    <t>Chinese Traditional</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중국어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>번체</t>
-    </r>
-  </si>
-  <si>
-    <t>Language.Korean</t>
-  </si>
-  <si>
-    <t>韩语</t>
-  </si>
-  <si>
-    <t>韓語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한국어</t>
-  </si>
-  <si>
-    <t>CheckVersion.Tips</t>
-  </si>
-  <si>
-    <t>正在检查游戏是否需要更新，请稍候……</t>
-  </si>
-  <si>
-    <t>正在檢查遊戲是否需要更新，請稍候……</t>
-  </si>
-  <si>
-    <t>Checking if the game needs update. Please wait...</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>최신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>버전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>...</t>
-    </r>
-  </si>
-  <si>
-    <t>UpdateResource.Tips</t>
-  </si>
-  <si>
-    <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
-  </si>
-  <si>
-    <t>ChineseSimplified</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +88,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,8 +119,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -583,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,12 +408,9 @@
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="34.75" customWidth="1"/>
-    <col min="6" max="6" width="44.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,119 +420,40 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Localization/LanguageBuiltin.xlsx
+++ b/Excels/Localization/LanguageBuiltin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\ZH_GameSpace\Self\GameClient\Excels\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21268E-70C4-4167-9F16-0E7230517D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18924E52-E756-466B-BFC9-3F8838E97D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="5430" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="13650" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateResource.Tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,6 +464,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/Localization/LanguageBuiltin.xlsx
+++ b/Excels/Localization/LanguageBuiltin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\ZH_GameSpace\Self\GameClient\Excels\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18924E52-E756-466B-BFC9-3F8838E97D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F1CEFC-665B-4DC1-AA46-A2563F8F493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="13650" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="4320" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excels/Localization/LanguageBuiltin.xlsx
+++ b/Excels/Localization/LanguageBuiltin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\ZH_GameSpace\Self\GameClient\Excels\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\Work\GameClient\Excels\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F1CEFC-665B-4DC1-AA46-A2563F8F493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E3DE4A-4A5D-4E5B-A028-202234B01A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="4320" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -68,6 +68,30 @@
   <si>
     <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceUpdate.Title</t>
+  </si>
+  <si>
+    <t>强制更新</t>
+  </si>
+  <si>
+    <t>ForceUpdate.Message</t>
+  </si>
+  <si>
+    <t>当前游戏版本过旧，是否前往更新？</t>
+  </si>
+  <si>
+    <t>ForceUpdate.UpdateButton</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>ForceUpdate.QuitButton</t>
+  </si>
+  <si>
+    <t>退出</t>
   </si>
 </sst>
 </file>
@@ -404,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D13"/>
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,6 +496,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/Localization/LanguageBuiltin.xlsx
+++ b/Excels/Localization/LanguageBuiltin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\Work\GameClient\Excels\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\Work\DEngine\Excels\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E3DE4A-4A5D-4E5B-A028-202234B01A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254EA05-2754-42FD-8213-1260CDEFFD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,32 +66,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
+    <t>ForceUpdate.Title</t>
+  </si>
+  <si>
+    <t>强制更新</t>
+  </si>
+  <si>
+    <t>ForceUpdate.Message</t>
+  </si>
+  <si>
+    <t>当前游戏版本过旧，是否前往更新？</t>
+  </si>
+  <si>
+    <t>ForceUpdate.UpdateButton</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>ForceUpdate.QuitButton</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>已更新{0}/总更新{1},已更新大小 {2}/总更新大小{3}, 更新进度{4:P0},当前网速 {5}/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceUpdate.Title</t>
-  </si>
-  <si>
-    <t>强制更新</t>
-  </si>
-  <si>
-    <t>ForceUpdate.Message</t>
-  </si>
-  <si>
-    <t>当前游戏版本过旧，是否前往更新？</t>
-  </si>
-  <si>
-    <t>ForceUpdate.UpdateButton</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>ForceUpdate.QuitButton</t>
-  </si>
-  <si>
-    <t>退出</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="78.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -493,39 +493,39 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
